--- a/src/com/qtpselenium/xls/Search Suite.xlsx
+++ b/src/com/qtpselenium/xls/Search Suite.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
   <si>
     <t>TCID</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>Check the Text</t>
-  </si>
-  <si>
-    <t>verifyTest</t>
   </si>
   <si>
     <t>TS07</t>
@@ -183,10 +180,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -205,6 +202,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -213,40 +263,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,34 +287,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,49 +331,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -368,187 +365,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,6 +574,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -588,21 +600,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,11 +639,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,24 +663,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -698,127 +695,127 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1205,7 +1202,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1440,7 +1437,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1451,10 +1448,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>27</v>
@@ -1468,10 +1465,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>27</v>
@@ -1485,13 +1482,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1520,36 +1517,36 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -1558,10 +1555,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -1570,22 +1567,22 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -1594,10 +1591,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>

--- a/src/com/qtpselenium/xls/Search Suite.xlsx
+++ b/src/com/qtpselenium/xls/Search Suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18315" windowHeight="6975" activeTab="1"/>
+    <workbookView windowWidth="18315" windowHeight="6975"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -34,139 +34,139 @@
     <t>Check first three search results</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>LaptopdisplayTest</t>
+  </si>
+  <si>
+    <t>Check laptops price range and brands</t>
+  </si>
+  <si>
+    <t>TSID</t>
+  </si>
+  <si>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Proceed_on_Failure</t>
+  </si>
+  <si>
+    <t>TS01</t>
+  </si>
+  <si>
+    <t>Open Browser</t>
+  </si>
+  <si>
+    <t>openBrowser</t>
+  </si>
+  <si>
+    <t>TS02</t>
+  </si>
+  <si>
+    <t>Navigate to Website</t>
+  </si>
+  <si>
+    <t>navigate</t>
+  </si>
+  <si>
+    <t>TS03</t>
+  </si>
+  <si>
+    <t>Check Title</t>
+  </si>
+  <si>
+    <t>verifyTitle</t>
+  </si>
+  <si>
+    <t>TS04</t>
+  </si>
+  <si>
+    <t>Click on search dropdown</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>TS05</t>
+  </si>
+  <si>
+    <t>Click on dropdown option</t>
+  </si>
+  <si>
+    <t>selectList</t>
+  </si>
+  <si>
+    <t>TS06</t>
+  </si>
+  <si>
+    <t>verify search Results</t>
+  </si>
+  <si>
+    <t>verifyText</t>
+  </si>
+  <si>
+    <t>Click on Computers</t>
+  </si>
+  <si>
+    <t>clickLink</t>
+  </si>
+  <si>
+    <t>Click on Laptop</t>
+  </si>
+  <si>
+    <t>Check the Text</t>
+  </si>
+  <si>
+    <t>TS07</t>
+  </si>
+  <si>
+    <t>Select Brand</t>
+  </si>
+  <si>
+    <t>TS08</t>
+  </si>
+  <si>
+    <t>Select Price</t>
+  </si>
+  <si>
+    <t>TS09</t>
+  </si>
+  <si>
+    <t>Check Laptops that are displayed</t>
+  </si>
+  <si>
+    <t>verifyLaptops</t>
+  </si>
+  <si>
+    <t>Col1</t>
+  </si>
+  <si>
+    <t>Col2</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>LaptopdisplayTest</t>
-  </si>
-  <si>
-    <t>Check laptops price range and brands</t>
-  </si>
-  <si>
-    <t>TSID</t>
-  </si>
-  <si>
-    <t>Keyword</t>
-  </si>
-  <si>
-    <t>Object</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Proceed_on_Failure</t>
-  </si>
-  <si>
-    <t>TS01</t>
-  </si>
-  <si>
-    <t>Open Browser</t>
-  </si>
-  <si>
-    <t>openBrowser</t>
-  </si>
-  <si>
-    <t>TS02</t>
-  </si>
-  <si>
-    <t>Navigate to Website</t>
-  </si>
-  <si>
-    <t>navigate</t>
-  </si>
-  <si>
-    <t>TS03</t>
-  </si>
-  <si>
-    <t>Check Title</t>
-  </si>
-  <si>
-    <t>verifyTitle</t>
-  </si>
-  <si>
-    <t>TS04</t>
-  </si>
-  <si>
-    <t>Click on search dropdown</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>TS05</t>
-  </si>
-  <si>
-    <t>Click on dropdown option</t>
-  </si>
-  <si>
-    <t>selectList</t>
-  </si>
-  <si>
-    <t>TS06</t>
-  </si>
-  <si>
-    <t>verify search Results</t>
-  </si>
-  <si>
-    <t>verifyText</t>
-  </si>
-  <si>
-    <t>Click on Computers</t>
-  </si>
-  <si>
-    <t>clickLink</t>
-  </si>
-  <si>
-    <t>Click on Laptop</t>
-  </si>
-  <si>
-    <t>Check the Text</t>
-  </si>
-  <si>
-    <t>TS07</t>
-  </si>
-  <si>
-    <t>Select Brand</t>
-  </si>
-  <si>
-    <t>TS08</t>
-  </si>
-  <si>
-    <t>Select Price</t>
-  </si>
-  <si>
-    <t>TS09</t>
-  </si>
-  <si>
-    <t>Check Laptops that are displayed</t>
-  </si>
-  <si>
-    <t>verifyLaptops</t>
-  </si>
-  <si>
-    <t>Col1</t>
-  </si>
-  <si>
-    <t>Col2</t>
-  </si>
-  <si>
-    <t>Results</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
   </si>
   <si>
     <t>C1</t>
@@ -180,15 +180,51 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -202,8 +238,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,7 +255,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,91 +317,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,7 +332,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,31 +365,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,145 +521,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,45 +574,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -631,8 +592,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,8 +601,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,7 +674,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,130 +692,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1146,8 +1146,8 @@
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -1201,7 +1201,7 @@
   <sheetPr/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1506,7 +1506,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1537,19 +1537,19 @@
         <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -1561,7 +1561,7 @@
         <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -1573,19 +1573,19 @@
         <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -1597,7 +1597,7 @@
         <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2"/>
     </row>

--- a/src/com/qtpselenium/xls/Search Suite.xlsx
+++ b/src/com/qtpselenium/xls/Search Suite.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="60">
   <si>
     <t>TCID</t>
   </si>
@@ -34,15 +34,18 @@
     <t>Check first three search results</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>LaptopdisplayTest</t>
+  </si>
+  <si>
+    <t>Check laptops price range and brands</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>LaptopdisplayTest</t>
-  </si>
-  <si>
-    <t>Check laptops price range and brands</t>
-  </si>
-  <si>
     <t>TSID</t>
   </si>
   <si>
@@ -166,13 +169,34 @@
     <t>B2</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
     <t>C2</t>
+  </si>
+  <si>
+    <t>Result1</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>Result2</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Result3</t>
+  </si>
+  <si>
+    <t>Result4</t>
+  </si>
+  <si>
+    <t>Result5</t>
+  </si>
+  <si>
+    <t>Result6</t>
   </si>
 </sst>
 </file>
@@ -180,8 +204,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -195,6 +219,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -208,8 +246,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,6 +272,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,30 +293,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -287,21 +326,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -317,7 +341,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,187 +389,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,34 +599,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,22 +632,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,6 +678,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -674,7 +698,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -695,136 +719,142 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1147,14 +1177,14 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="18.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="37.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="10.1428571428571" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5714285714286" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.2857142857143" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.1428571428571" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1187,7 +1217,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1199,7 +1229,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
@@ -1207,13 +1237,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="23.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="5.57142857142857" customWidth="1"/>
-    <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="17.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="17.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="16.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="22.4285714285714" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.8571428571429" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="5.57142857142857" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="46.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.5714285714286" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.7142857142857" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.5714285714286" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.4285714285714" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.69921875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="7.69921875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="7.69921875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="7.69921875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="7.69921875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="7.69921875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1221,22 +1257,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H1" t="s" s="5">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s" s="6">
+        <v>54</v>
+      </c>
+      <c r="J1" t="s" s="7">
+        <v>56</v>
+      </c>
+      <c r="K1" t="s" s="8">
+        <v>57</v>
+      </c>
+      <c r="L1" t="s" s="9">
+        <v>58</v>
+      </c>
+      <c r="M1" t="s" s="10">
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1244,115 +1298,223 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
+      <c r="H5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
+      <c r="H6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1363,13 +1525,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1380,13 +1542,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1397,13 +1559,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1414,13 +1576,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1431,13 +1593,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1448,13 +1610,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1465,13 +1627,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1482,13 +1644,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1511,47 +1673,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="5.42857142857143" customWidth="1"/>
-    <col min="3" max="3" width="10.1428571428571" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="5.42857142857143" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.1428571428571" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="6.5859375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
@@ -1561,33 +1728,39 @@
         <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
@@ -1597,9 +1770,11 @@
         <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
